--- a/biology/Médecine/1136_en_santé_et_médecine/1136_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1136_en_santé_et_médecine/1136_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1136_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1136_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1136 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1136_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1136_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« Épidémie de possessions » à Milan, rapportée par Arnaud, abbé de Bonneval, dans son hagiographie de saint Bernard[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Épidémie de possessions » à Milan, rapportée par Arnaud, abbé de Bonneval, dans son hagiographie de saint Bernard.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1136_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1136_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À Bruère, près de Saint-Amand en Bourbonnais, création de la maison-Dieu qui est à l'origine de l'abbaye cistercienne de Noirlac dont elle ne prendra le nom qu'en 1276[2].
-Première mention, dans l'acte de donation d'un certain Crescentius, de la léproserie Santa Croce de Vérone, située hors les murs, près de l'église San Fermo Maggiore (it)[3].
-Vers 1136 : fondation probable de la léproserie Saint-Gilles (leper hospital of St. Giles), à Shrewsbury dans le Shropshire en Angleterre, établissement qui ne sera mentionné pour la première fois qu'en 1155[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À Bruère, près de Saint-Amand en Bourbonnais, création de la maison-Dieu qui est à l'origine de l'abbaye cistercienne de Noirlac dont elle ne prendra le nom qu'en 1276.
+Première mention, dans l'acte de donation d'un certain Crescentius, de la léproserie Santa Croce de Vérone, située hors les murs, près de l'église San Fermo Maggiore (it).
+Vers 1136 : fondation probable de la léproserie Saint-Gilles (leper hospital of St. Giles), à Shrewsbury dans le Shropshire en Angleterre, établissement qui ne sera mentionné pour la première fois qu'en 1155.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1136_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1136_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Heluidis, femme médecin (« medica »), bienfaitrice de l'église Notre-Dame-et-Saint-Martin de Fives, en Flandre[5].
-1112-1136 : fl. Gaucelin, médecin, qualifié de « megeicharius » (« médicamentaire »), cité dans des chartes de l'abbaye Saint-Jean-en-Vallée de Chartres[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Heluidis, femme médecin (« medica »), bienfaitrice de l'église Notre-Dame-et-Saint-Martin de Fives, en Flandre.
+1112-1136 : fl. Gaucelin, médecin, qualifié de « megeicharius » (« médicamentaire »), cité dans des chartes de l'abbaye Saint-Jean-en-Vallée de Chartres.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1136_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1136_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Al-Jurjani (en) (né à une date inconnue), médecin à Ispahan sous le règne des Khwârezm-Shahs, auteur, en 1110, du Zakhira-i Khwarizmshahi (« Trésor du roi du Khwarezm »), encyclopédie médicale très influencée par le Canon d'Avicenne[6],[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Al-Jurjani (en) (né à une date inconnue), médecin à Ispahan sous le règne des Khwârezm-Shahs, auteur, en 1110, du Zakhira-i Khwarizmshahi (« Trésor du roi du Khwarezm »), encyclopédie médicale très influencée par le Canon d'Avicenne,.</t>
         </is>
       </c>
     </row>
